--- a/Asp-sens_temporal-annotations.xlsx
+++ b/Asp-sens_temporal-annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/Aspartate-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6745A-72ED-9F48-87A5-49C7D1275E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243CC2B1-6DB9-E84A-89F7-90D806E23003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="500" windowWidth="23120" windowHeight="16880" xr2:uid="{6312973D-7F17-714D-B76D-99B77399694C}"/>
   </bookViews>
@@ -643,9 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08D835-3FD1-C242-BDE7-5D224CD72CD4}">
   <dimension ref="A1:T285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J267" sqref="J267"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V248" sqref="V248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15666,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="O242">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P242" t="b">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="O243">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P243" t="b">
         <v>0</v>
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="O244">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P244" t="b">
         <v>0</v>
@@ -15852,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="O245">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P245" t="b">
         <v>0</v>
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="O246">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P246" t="b">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="O247">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P247" t="b">
         <v>0</v>
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="O248">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P248" t="b">
         <v>0</v>
@@ -16100,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="O249">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P249" t="b">
         <v>0</v>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="O250">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P250" t="b">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="O251">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P251" t="b">
         <v>0</v>
@@ -16286,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="O252">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P252" t="b">
         <v>0</v>
@@ -16348,7 +16348,7 @@
         <v>1</v>
       </c>
       <c r="O253">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P253" t="b">
         <v>0</v>
@@ -16410,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="O254">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P254" t="b">
         <v>0</v>
@@ -16472,7 +16472,7 @@
         <v>1</v>
       </c>
       <c r="O255">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P255" t="b">
         <v>0</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="O256">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P256" t="b">
         <v>0</v>
@@ -16596,7 +16596,7 @@
         <v>1</v>
       </c>
       <c r="O257">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P257" t="b">
         <v>0</v>
@@ -16658,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="O258">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P258" t="b">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>1</v>
       </c>
       <c r="O259">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P259" t="b">
         <v>0</v>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="O260">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P260" t="b">
         <v>0</v>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="O261">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P261" t="b">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="O262">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P262" t="b">
         <v>0</v>
@@ -16968,7 +16968,7 @@
         <v>1</v>
       </c>
       <c r="O263">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P263" t="b">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="O264">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P264" t="b">
         <v>0</v>
@@ -17092,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="O265">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P265" t="b">
         <v>0</v>
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="O266">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P266" t="b">
         <v>0</v>
@@ -17216,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="O267">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P267" t="b">
         <v>0</v>
@@ -17278,7 +17278,7 @@
         <v>1</v>
       </c>
       <c r="O268">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P268" t="b">
         <v>0</v>
@@ -17340,7 +17340,7 @@
         <v>1</v>
       </c>
       <c r="O269">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P269" t="b">
         <v>0</v>
@@ -17402,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="O270">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P270" t="b">
         <v>0</v>
@@ -17464,7 +17464,7 @@
         <v>1</v>
       </c>
       <c r="O271">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P271" t="b">
         <v>0</v>
@@ -17526,7 +17526,7 @@
         <v>1</v>
       </c>
       <c r="O272">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P272" t="b">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="O273">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P273" t="b">
         <v>0</v>
@@ -17650,7 +17650,7 @@
         <v>1</v>
       </c>
       <c r="O274">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P274" t="b">
         <v>0</v>
@@ -17712,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="O275">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P275" t="b">
         <v>0</v>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="O276">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P276" t="b">
         <v>0</v>
@@ -17836,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="O277">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P277" t="b">
         <v>0</v>
@@ -17898,7 +17898,7 @@
         <v>1</v>
       </c>
       <c r="O278">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P278" t="b">
         <v>0</v>
@@ -17960,7 +17960,7 @@
         <v>1</v>
       </c>
       <c r="O279">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P279" t="b">
         <v>0</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="O280">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P280" t="b">
         <v>0</v>
@@ -18084,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="O281">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P281" t="b">
         <v>0</v>
@@ -18146,7 +18146,7 @@
         <v>1</v>
       </c>
       <c r="O282">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P282" t="b">
         <v>0</v>
@@ -18208,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="O283">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P283" t="b">
         <v>0</v>
@@ -18270,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="O284">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P284" t="b">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="O285">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P285" t="b">
         <v>0</v>
